--- a/docs/requirements/Master Data Tables - Test Data/master-gender.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-gender.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="23">
   <si>
     <t>code</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>Dautres</t>
+  </si>
+  <si>
+    <t>الذكر</t>
   </si>
 </sst>
 </file>
@@ -927,9 +930,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="7.36328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1016,7 +1024,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
@@ -1133,5 +1141,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/requirements/Master Data Tables - Test Data/master-gender.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-gender.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\Master DB\Master Data Sample\xls Version\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip\docs\requirements\Master Data Tables - Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF6D43A-6F50-4034-BA35-BCDFE8293641}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="master-gender" sheetId="1" r:id="rId1"/>
@@ -93,7 +94,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -927,11 +928,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1010,7 +1011,7 @@
         <v>8</v>
       </c>
       <c r="D4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -1070,7 +1071,7 @@
         <v>16</v>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
         <v>9</v>
@@ -1130,7 +1131,7 @@
         <v>19</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>

--- a/docs/requirements/Master Data Tables - Test Data/master-gender.xlsx
+++ b/docs/requirements/Master Data Tables - Test Data/master-gender.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M1045452\Documents\GitHub\mosip\docs\requirements\Master Data Tables - Test Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1045476\Desktop\DB Updated Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF6D43A-6F50-4034-BA35-BCDFE8293641}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{9CFAAEE1-7EE3-44CC-AF25-D8DC1A70F2B7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -932,7 +932,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
